--- a/Data/ledger.xlsx
+++ b/Data/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\code\BLOCKASTICS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6EE9C8-25A8-4107-B455-40A9207F480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DBA7FD-63E9-4F35-B0F4-13D6A3BA2881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24405" windowHeight="11175" activeTab="1" xr2:uid="{A260AE92-C4C1-45E8-976D-0E6C0D453DB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A260AE92-C4C1-45E8-976D-0E6C0D453DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Investment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>BTC</t>
   </si>
@@ -131,6 +131,33 @@
   </si>
   <si>
     <t>ratio_fee_to_amount_sent</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>bc1qpt2xw04qxsaecrnjz6f23paluqy4uwhjjsnzfj</t>
+  </si>
+  <si>
+    <t>bc1qp5hrc4nf3cudw35r8h6my5lpdp2jr8efgepwmn</t>
+  </si>
+  <si>
+    <t>96c21c6f939d26c27243b8b60861d1fa69d06dabf5b93f66e03e82d861ef330b</t>
+  </si>
+  <si>
+    <t>00000000000000000009803c71d7f238315f4de332118616254440821b162eaf</t>
+  </si>
+  <si>
+    <t>bc1qhszy4gxqxwkchgqpf2yge8u94f4djmz3kng35d</t>
+  </si>
+  <si>
+    <t>301886494659aeeeb8769ba5db224996bf3c941dd078f670de0a42d1fcdafe66</t>
+  </si>
+  <si>
+    <t>3PMmtwa8izTZ7kqNkASeKQWdAwkJgx1W3V</t>
+  </si>
+  <si>
+    <t>00000000000000000005eb4bbdee1b31346de8a89fe3ecb3f8d21538d37cd164</t>
   </si>
 </sst>
 </file>
@@ -140,10 +167,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,11 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7619120D-CAA1-4044-89FA-B89F63E9873C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -522,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44743</v>
       </c>
@@ -550,7 +584,7 @@
         <v>192.330047944</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44743</v>
       </c>
@@ -576,6 +610,34 @@
       <c r="H3">
         <f>F3*G3</f>
         <v>4.9965530999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>200.51</v>
+      </c>
+      <c r="D4">
+        <f>C4-E4</f>
+        <v>7.6899999999999977</v>
+      </c>
+      <c r="E4">
+        <v>192.82</v>
+      </c>
+      <c r="F4">
+        <v>8.8274900000000003E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>21842.81</v>
+      </c>
+      <c r="H4">
+        <f>F4*G4</f>
+        <v>192.81718684690003</v>
       </c>
     </row>
   </sheetData>
@@ -586,32 +648,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E6D933-2325-42CE-9A4E-718A5F28FC0A}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="21.08984375" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="15" max="15" width="16.54296875" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -670,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44743</v>
       </c>
@@ -736,7 +798,138 @@
         <v>2.7770159078455627E-2</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>21627.21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>1.0226169899999999</v>
+      </c>
+      <c r="J3">
+        <v>2.0633000000000001E-4</v>
+      </c>
+      <c r="K3">
+        <f>I3-J3</f>
+        <v>1.02241066</v>
+      </c>
+      <c r="L3" s="3">
+        <f>J3/I3</f>
+        <v>2.0176664578983771E-4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>1.58504E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.5732400000000001E-3</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3</f>
+        <v>1.1799999999999962E-5</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>P3/N3</f>
+        <v>7.4446070761620912E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <f>O3/K3</f>
+        <v>1.5387554742435881E-3</v>
+      </c>
+      <c r="S3" s="3">
+        <f>P3/J3</f>
+        <v>5.7189938448116907E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>21627.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>1.5768109800000001</v>
+      </c>
+      <c r="J4">
+        <v>1.9898999999999999E-4</v>
+      </c>
+      <c r="K4">
+        <f>I4-J4</f>
+        <v>1.5766119900000002</v>
+      </c>
+      <c r="L4" s="3">
+        <f>J4/I4</f>
+        <v>1.2619775136269026E-4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4">
+        <v>7.2424999999999998E-3</v>
+      </c>
+      <c r="O4">
+        <v>7.2301199999999996E-3</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4</f>
+        <v>1.2380000000000203E-5</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>P4/N4</f>
+        <v>1.7093545046600212E-3</v>
+      </c>
+      <c r="R4" s="3">
+        <f>O4/K4</f>
+        <v>4.5858588199624174E-3</v>
+      </c>
+      <c r="S4" s="3">
+        <f>P4/J4</f>
+        <v>6.221418161716772E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
